--- a/GSENSE2020BSI/РАСПИНОВКА.xlsx
+++ b/GSENSE2020BSI/РАСПИНОВКА.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>ПОРТ</t>
   </si>
@@ -668,7 +668,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E30"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,8 +737,8 @@
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
+      <c r="E3" s="29">
+        <v>286177</v>
       </c>
       <c r="F3" s="4"/>
       <c r="I3" s="7">

--- a/GSENSE2020BSI/РАСПИНОВКА.xlsx
+++ b/GSENSE2020BSI/РАСПИНОВКА.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14412"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>ПОРТ</t>
   </si>
@@ -100,82 +100,34 @@
     <t>A</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>POWER0</t>
   </si>
   <si>
-    <t>SYSCLK</t>
-  </si>
-  <si>
     <t>PFI1</t>
   </si>
   <si>
-    <t>SDATA</t>
-  </si>
-  <si>
-    <t>STANDBY</t>
-  </si>
-  <si>
-    <t>RESET_BAR</t>
-  </si>
-  <si>
-    <t>SCLK</t>
-  </si>
-  <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
-    <t>PIXCLK</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>FV</t>
-  </si>
-  <si>
-    <t>3,3_VDD</t>
-  </si>
-  <si>
     <t>3,3_VAA</t>
   </si>
   <si>
-    <t>3,3_SVDDLVDS</t>
-  </si>
-  <si>
-    <t>3,3_VAAPIX</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>POWER2</t>
+  </si>
+  <si>
+    <t>VDD35A(PIX)</t>
+  </si>
+  <si>
+    <t>VDD20</t>
+  </si>
+  <si>
+    <t>3,3_LDC</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>VRH</t>
   </si>
 </sst>
 </file>
@@ -200,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,34 +291,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -668,37 +626,37 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,89 +671,89 @@
         <v>1</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="I2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="18" t="s">
+      <c r="I2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L2" s="24"/>
+      <c r="M2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="22"/>
       <c r="C3" s="4"/>
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29">
-        <v>286177</v>
-      </c>
+      <c r="E3" s="22"/>
       <c r="F3" s="4"/>
       <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="24">
+        <v>30</v>
+      </c>
+      <c r="M3" s="19">
         <v>0</v>
       </c>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N3" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="4"/>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="24">
+        <v>35</v>
+      </c>
+      <c r="M4" s="19">
         <v>1</v>
       </c>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="4"/>
       <c r="I5" s="8">
         <v>2</v>
@@ -805,21 +763,21 @@
         <v>2</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="25">
+      <c r="M5" s="20">
         <v>2</v>
       </c>
-      <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4"/>
       <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="1"/>
@@ -830,20 +788,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>41</v>
-      </c>
+      <c r="B7" s="22"/>
       <c r="C7" s="4"/>
       <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>41</v>
-      </c>
+      <c r="E7" s="22"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="14"/>
@@ -859,20 +813,16 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>42</v>
-      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="4"/>
       <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>42</v>
-      </c>
+      <c r="E8" s="22"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="14"/>
@@ -888,20 +838,16 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>43</v>
-      </c>
+      <c r="B9" s="22"/>
       <c r="C9" s="4"/>
       <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>43</v>
-      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="14"/>
@@ -917,20 +863,16 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="B10" s="22"/>
       <c r="C10" s="4"/>
       <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="E10" s="22"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="14"/>
@@ -946,12 +888,12 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="14"/>
@@ -967,20 +909,16 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="4"/>
       <c r="D12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="4"/>
       <c r="H12" s="16"/>
       <c r="I12" s="3"/>
@@ -995,12 +933,12 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1015,16 +953,16 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="4"/>
       <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="4"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1039,16 +977,16 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="4"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1063,16 +1001,16 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="4"/>
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="4"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1087,16 +1025,16 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="4"/>
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="4"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1111,20 +1049,16 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="B18" s="22"/>
       <c r="C18" s="4"/>
       <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="E18" s="22"/>
       <c r="F18" s="4"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1139,20 +1073,16 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="B19" s="22"/>
       <c r="C19" s="4"/>
       <c r="D19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="4"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1167,20 +1097,16 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="B20" s="22"/>
       <c r="C20" s="4"/>
       <c r="D20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="E20" s="22"/>
       <c r="F20" s="4"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -1195,20 +1121,16 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="4"/>
       <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="E21" s="22"/>
       <c r="F21" s="4"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -1223,12 +1145,12 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1243,20 +1165,16 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="4"/>
       <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="4"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1271,20 +1189,16 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="B24" s="22"/>
       <c r="C24" s="4"/>
       <c r="D24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="4"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1299,20 +1213,16 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>28</v>
-      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="4"/>
       <c r="D25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>28</v>
-      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="4"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -1327,20 +1237,16 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="4"/>
       <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="E26" s="22"/>
       <c r="F26" s="4"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -1355,20 +1261,16 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="4"/>
       <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="4"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -1383,20 +1285,16 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="B28" s="22"/>
       <c r="C28" s="4"/>
       <c r="D28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="4"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -1411,20 +1309,16 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="B29" s="22"/>
       <c r="C29" s="4"/>
       <c r="D29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="E29" s="22"/>
       <c r="F29" s="4"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -1439,20 +1333,16 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="B30" s="22"/>
       <c r="C30" s="4"/>
       <c r="D30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="4"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -1467,7 +1357,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -1484,7 +1374,7 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -1499,7 +1389,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -1514,7 +1404,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -1529,7 +1419,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -1543,7 +1433,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -1557,7 +1447,7 @@
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -1571,7 +1461,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -1585,7 +1475,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -1599,7 +1489,7 @@
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>

--- a/GSENSE2020BSI/РАСПИНОВКА.xlsx
+++ b/GSENSE2020BSI/РАСПИНОВКА.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>ПОРТ</t>
   </si>
@@ -128,6 +128,144 @@
   </si>
   <si>
     <t>VRH</t>
+  </si>
+  <si>
+    <t>SPI_OUT</t>
+  </si>
+  <si>
+    <t>SPI_WRITE</t>
+  </si>
+  <si>
+    <t>ROW11</t>
+  </si>
+  <si>
+    <t>ROW10</t>
+  </si>
+  <si>
+    <t>SPI_DATA</t>
+  </si>
+  <si>
+    <t>SPI_CLK</t>
+  </si>
+  <si>
+    <t>SPI_READ</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>ROW9</t>
+  </si>
+  <si>
+    <t>OUTT6</t>
+  </si>
+  <si>
+    <t>OUTT4</t>
+  </si>
+  <si>
+    <t>OUTT0</t>
+  </si>
+  <si>
+    <t>OUTT2</t>
+  </si>
+  <si>
+    <t>OUTB6</t>
+  </si>
+  <si>
+    <t>OUTB4</t>
+  </si>
+  <si>
+    <t>OUTB2</t>
+  </si>
+  <si>
+    <t>OUTB0</t>
+  </si>
+  <si>
+    <t>ROW8</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>ROW7</t>
+  </si>
+  <si>
+    <t>ROW6</t>
+  </si>
+  <si>
+    <t>ROW5</t>
+  </si>
+  <si>
+    <t>ROW4</t>
+  </si>
+  <si>
+    <t>CLK_OUT</t>
+  </si>
+  <si>
+    <t>ROW3</t>
+  </si>
+  <si>
+    <t>ROW2</t>
+  </si>
+  <si>
+    <t>ROW1</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>ROW0</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>SYS_RST_N</t>
+  </si>
+  <si>
+    <t>VTZ</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>LDC_IN</t>
+  </si>
+  <si>
+    <t>CLK_IN</t>
+  </si>
+  <si>
+    <t>TR_BLS</t>
+  </si>
+  <si>
+    <t>TS_CLIP</t>
+  </si>
+  <si>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t>SYNC</t>
+  </si>
+  <si>
+    <t>C_INIT_T</t>
+  </si>
+  <si>
+    <t>C_INIT_B</t>
+  </si>
+  <si>
+    <t>SAM_T</t>
+  </si>
+  <si>
+    <t>SAM_B</t>
+  </si>
+  <si>
+    <t>READ</t>
   </si>
 </sst>
 </file>
@@ -152,18 +290,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -297,9 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,10 +448,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -625,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,15 +777,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -671,46 +803,50 @@
         <v>1</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="19">
         <v>0</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -718,29 +854,33 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="M4" s="19">
         <v>1</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -748,12 +888,16 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="I5" s="8">
         <v>2</v>
@@ -772,12 +916,16 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="1"/>
@@ -792,12 +940,16 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="14"/>
@@ -817,12 +969,16 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="29" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="14"/>
@@ -842,12 +998,14 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="14"/>
@@ -867,12 +1025,16 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="14"/>
@@ -913,12 +1075,16 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="H12" s="16"/>
       <c r="I12" s="3"/>
@@ -957,12 +1123,16 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -981,12 +1151,16 @@
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="29" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1005,12 +1179,16 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1029,12 +1207,16 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1053,12 +1235,16 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1077,12 +1263,16 @@
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1101,12 +1291,16 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -1125,12 +1319,16 @@
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -1169,12 +1367,16 @@
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1193,12 +1395,16 @@
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1217,12 +1423,16 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -1241,12 +1451,16 @@
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -1265,12 +1479,13 @@
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="22"/>
       <c r="F27" s="4"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -1289,12 +1504,16 @@
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -1313,12 +1532,16 @@
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -1337,12 +1560,12 @@
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>

--- a/GSENSE2020BSI/РАСПИНОВКА.xlsx
+++ b/GSENSE2020BSI/РАСПИНОВКА.xlsx
@@ -106,9 +106,6 @@
     <t>PFI1</t>
   </si>
   <si>
-    <t>3,3_VAA</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>VDD20</t>
   </si>
   <si>
-    <t>3,3_LDC</t>
-  </si>
-  <si>
     <t>LIGHT</t>
   </si>
   <si>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>READ</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>3,3</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,9 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +760,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,15 +779,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="26"/>
+      <c r="D1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="27"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -803,100 +805,100 @@
         <v>1</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="28"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>39</v>
+      <c r="B3" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>63</v>
+      <c r="E3" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="F3" s="4"/>
       <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M3" s="19">
         <v>0</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>36</v>
+      <c r="N3" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>40</v>
+      <c r="B4" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>64</v>
+      <c r="E4" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="M4" s="19">
         <v>1</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>37</v>
+      <c r="N4" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>41</v>
+      <c r="B5" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>65</v>
+      <c r="E5" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="8">
@@ -916,15 +918,15 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
+      <c r="B6" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>66</v>
+      <c r="E6" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
@@ -940,15 +942,15 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>43</v>
+      <c r="B7" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>67</v>
+      <c r="E7" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
@@ -969,15 +971,15 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>44</v>
+      <c r="B8" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>68</v>
+      <c r="E8" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -998,8 +1000,8 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>45</v>
+      <c r="B9" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="11" t="s">
@@ -1025,15 +1027,15 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>46</v>
+      <c r="B10" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>69</v>
+      <c r="E10" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
@@ -1075,15 +1077,15 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>38</v>
+      <c r="B12" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>62</v>
+      <c r="E12" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="16"/>
@@ -1123,15 +1125,15 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>47</v>
+      <c r="B14" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>70</v>
+      <c r="E14" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="F14" s="4"/>
       <c r="H14" s="16"/>
@@ -1151,15 +1153,15 @@
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>48</v>
+      <c r="B15" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>71</v>
+      <c r="E15" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="16"/>
@@ -1179,15 +1181,15 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>49</v>
+      <c r="B16" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>72</v>
+      <c r="E16" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="4"/>
       <c r="H16" s="16"/>
@@ -1207,15 +1209,15 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>50</v>
+      <c r="B17" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>73</v>
+      <c r="E17" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="4"/>
       <c r="H17" s="16"/>
@@ -1235,15 +1237,15 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>51</v>
+      <c r="B18" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>74</v>
+      <c r="E18" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="4"/>
       <c r="H18" s="16"/>
@@ -1263,15 +1265,15 @@
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>52</v>
+      <c r="B19" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>75</v>
+      <c r="E19" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="4"/>
       <c r="H19" s="16"/>
@@ -1291,15 +1293,15 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>53</v>
+      <c r="B20" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>76</v>
+      <c r="E20" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="4"/>
       <c r="H20" s="16"/>
@@ -1319,15 +1321,15 @@
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>54</v>
+      <c r="B21" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>77</v>
+      <c r="E21" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="4"/>
       <c r="H21" s="16"/>
@@ -1367,15 +1369,15 @@
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>55</v>
+      <c r="B23" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>78</v>
+      <c r="E23" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F23" s="4"/>
       <c r="H23" s="16"/>
@@ -1395,15 +1397,15 @@
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>56</v>
+      <c r="B24" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>79</v>
+      <c r="E24" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="F24" s="4"/>
       <c r="H24" s="16"/>
@@ -1423,15 +1425,15 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>57</v>
+      <c r="B25" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>80</v>
+      <c r="E25" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="F25" s="4"/>
       <c r="H25" s="16"/>
@@ -1451,15 +1453,15 @@
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>58</v>
+      <c r="B26" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>81</v>
+      <c r="E26" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F26" s="4"/>
       <c r="H26" s="16"/>
@@ -1479,8 +1481,8 @@
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>59</v>
+      <c r="B27" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="11" t="s">
@@ -1504,15 +1506,15 @@
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>60</v>
+      <c r="B28" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>82</v>
+      <c r="E28" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="F28" s="4"/>
       <c r="H28" s="16"/>
@@ -1532,15 +1534,15 @@
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>61</v>
+      <c r="B29" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>83</v>
+      <c r="E29" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="F29" s="4"/>
       <c r="H29" s="16"/>
